--- a/その他の資料/多数決シート.xlsx
+++ b/その他の資料/多数決シート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>ホームページ作成</t>
     <rPh sb="6" eb="8">
@@ -178,10 +178,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,26 +507,26 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -547,7 +547,7 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -555,14 +555,18 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -647,7 +651,7 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C9">
         <f>COUNTIF(C4:C8,"○")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:J9" si="0">COUNTIF(D4:D8,"○")</f>
@@ -675,7 +679,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
